--- a/xlsx/电动自行车_intext.xlsx
+++ b/xlsx/电动自行车_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>电动自行车</t>
   </si>
@@ -29,7 +29,7 @@
     <t>摩托车</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_电动自行车</t>
+    <t>政策_政策_混合动力车辆_电动自行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%84%E7%94%B5%E6%B1%A0</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E5%8C%96%E8%87%AA%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托化自行車</t>
+    <t>摩托化自行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8F%88%E6%A2%9D</t>
   </si>
   <si>
-    <t>鏈條</t>
+    <t>链条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E4%BA%8B%E5%8B%99%E5%B1%80</t>
   </si>
   <si>
-    <t>交通事務局</t>
+    <t>交通事务局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B3%95%E4%BE%8B</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E7%BD%B2</t>
   </si>
   <si>
-    <t>運輸署</t>
+    <t>运输署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%95%E9%A7%9B%E5%9F%B7%E7%85%A7</t>
   </si>
   <si>
-    <t>駕駛執照</t>
+    <t>驾驶执照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%8A%A8</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B2%E8%81%AF</t>
   </si>
   <si>
-    <t>串聯</t>
+    <t>串联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%B0%E9%9B%A2%E5%AD%90%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>鋰離子電池</t>
+    <t>锂离子电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E5%99%A8</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E9%80%9F</t>
   </si>
   <si>
-    <t>轉速</t>
+    <t>转速</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E7%84%A1%E5%88%B7%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>直流無刷電動機</t>
+    <t>直流无刷电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%A3%81%E5%90%8C%E6%AD%A5%E9%9B%BB%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>永磁同步電動機</t>
+    <t>永磁同步电动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%B5%81%E5%BC%82%E6%AD%A5%E7%94%B5%E6%9C%BA</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>剎車</t>
+    <t>刹车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%89%BA</t>
@@ -221,9 +221,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%94%82%E7%A6%BB%E5%AD%90%E7%94%B5%E6%B1%A0</t>
   </si>
   <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%93%E6%B5%81</t>
   </si>
   <si>
@@ -233,13 +230,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>消費者委員會</t>
+    <t>消费者委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1576,7 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1605,10 +1602,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1663,10 +1660,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1692,10 +1689,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1721,10 +1718,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1750,10 +1747,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
